--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_18%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1502,28 +1502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.91438896796377</v>
+        <v>118.8998332089855</v>
       </c>
       <c r="AB2" t="n">
-        <v>127.1295660794573</v>
+        <v>162.6839972868967</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.996498720334</v>
+        <v>147.1576649143044</v>
       </c>
       <c r="AD2" t="n">
-        <v>92914.38896796378</v>
+        <v>118899.8332089855</v>
       </c>
       <c r="AE2" t="n">
-        <v>127129.5660794573</v>
+        <v>162683.9972868967</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.607911362562466e-06</v>
+        <v>6.643061835280358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>114996.498720334</v>
+        <v>147157.6649143044</v>
       </c>
     </row>
     <row r="3">
@@ -1608,28 +1608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.26766272259343</v>
+        <v>116.082514763023</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.5081984652223</v>
+        <v>158.8292178978149</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.7207493485792</v>
+        <v>143.6707802598985</v>
       </c>
       <c r="AD3" t="n">
-        <v>90267.66272259344</v>
+        <v>116082.514763023</v>
       </c>
       <c r="AE3" t="n">
-        <v>123508.1984652223</v>
+        <v>158829.2178978148</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.81084243659957e-06</v>
+        <v>6.935620343258832e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.319444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>111720.7493485792</v>
+        <v>143670.7802598985</v>
       </c>
     </row>
   </sheetData>
@@ -1905,28 +1905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.38159053520521</v>
+        <v>112.5486098541934</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.5593471739209</v>
+        <v>153.9939732966752</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.1487708822707</v>
+        <v>139.2970046171816</v>
       </c>
       <c r="AD2" t="n">
-        <v>87381.59053520521</v>
+        <v>112548.6098541934</v>
       </c>
       <c r="AE2" t="n">
-        <v>119559.3471739209</v>
+        <v>153993.9732966752</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.895037559257372e-06</v>
+        <v>7.166150840565583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>108148.7708822707</v>
+        <v>139297.0046171816</v>
       </c>
     </row>
   </sheetData>
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.62739843380332</v>
+        <v>123.6965533707623</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.7368929694903</v>
+        <v>169.2470814285948</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.6413017808621</v>
+        <v>153.0943775168673</v>
       </c>
       <c r="AD2" t="n">
-        <v>92627.39843380332</v>
+        <v>123696.5533707623</v>
       </c>
       <c r="AE2" t="n">
-        <v>126736.8929694903</v>
+        <v>169247.0814285948</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.602987528668437e-06</v>
+        <v>7.121389867018793e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.621527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>114641.3017808621</v>
+        <v>153094.3775168673</v>
       </c>
     </row>
   </sheetData>
@@ -2499,28 +2499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.59673600462388</v>
+        <v>116.5972571970302</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.7489863460706</v>
+        <v>159.5335112048566</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.7020655439542</v>
+        <v>144.3078568021982</v>
       </c>
       <c r="AD2" t="n">
-        <v>84596.73600462388</v>
+        <v>116597.2571970302</v>
       </c>
       <c r="AE2" t="n">
-        <v>115748.9863460706</v>
+        <v>159533.5112048566</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.84158283771675e-06</v>
+        <v>7.31705494034118e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.93287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>104702.0655439542</v>
+        <v>144307.8568021982</v>
       </c>
     </row>
   </sheetData>
@@ -2796,28 +2796,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.3100012399761</v>
+        <v>140.0187185711098</v>
       </c>
       <c r="AB2" t="n">
-        <v>139.9850572951772</v>
+        <v>191.5797879388066</v>
       </c>
       <c r="AC2" t="n">
-        <v>126.625079897225</v>
+        <v>173.2956818619022</v>
       </c>
       <c r="AD2" t="n">
-        <v>102310.0012399761</v>
+        <v>140018.7185711098</v>
       </c>
       <c r="AE2" t="n">
-        <v>139985.0572951772</v>
+        <v>191579.7879388066</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.236967523174817e-06</v>
+        <v>6.696476285849141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.599537037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>126625.079897225</v>
+        <v>173295.6818619022</v>
       </c>
     </row>
   </sheetData>
@@ -3093,28 +3093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>88.62406823190632</v>
+        <v>113.9613648432064</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.2593599727939</v>
+        <v>155.9269669989932</v>
       </c>
       <c r="AC2" t="n">
-        <v>109.6865368456028</v>
+        <v>141.0455161135247</v>
       </c>
       <c r="AD2" t="n">
-        <v>88624.06823190632</v>
+        <v>113961.3648432064</v>
       </c>
       <c r="AE2" t="n">
-        <v>121259.3599727939</v>
+        <v>155926.9669989932</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.837497728738104e-06</v>
+        <v>7.052521611353203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.440972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>109686.5368456028</v>
+        <v>141045.5161135247</v>
       </c>
     </row>
     <row r="3">
@@ -3199,28 +3199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.01160774135529</v>
+        <v>114.3489043526553</v>
       </c>
       <c r="AB3" t="n">
-        <v>121.7896086266582</v>
+        <v>156.4572156528575</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.1661793121511</v>
+        <v>141.525158580073</v>
       </c>
       <c r="AD3" t="n">
-        <v>89011.60774135528</v>
+        <v>114348.9043526553</v>
       </c>
       <c r="AE3" t="n">
-        <v>121789.6086266582</v>
+        <v>156457.2156528575</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.821291435635939e-06</v>
+        <v>7.028894678845525e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.46412037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>110166.1793121511</v>
+        <v>141525.158580073</v>
       </c>
     </row>
   </sheetData>
@@ -3496,28 +3496,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.3685400006502</v>
+        <v>149.3747577052765</v>
       </c>
       <c r="AB2" t="n">
-        <v>153.7475937789363</v>
+        <v>204.3811334414826</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.0741392148198</v>
+        <v>184.8752849166081</v>
       </c>
       <c r="AD2" t="n">
-        <v>112368.5400006502</v>
+        <v>149374.7577052765</v>
       </c>
       <c r="AE2" t="n">
-        <v>153747.5937789363</v>
+        <v>204381.1334414826</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.933444577806121e-06</v>
+        <v>6.302302170643163e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>139074.1392148198</v>
+        <v>184875.2849166081</v>
       </c>
     </row>
   </sheetData>
@@ -3793,28 +3793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.65992107587761</v>
+        <v>110.4449003963676</v>
       </c>
       <c r="AB2" t="n">
-        <v>117.2036830649741</v>
+        <v>151.1155852073683</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.0179280496858</v>
+        <v>136.6933258472742</v>
       </c>
       <c r="AD2" t="n">
-        <v>85659.9210758776</v>
+        <v>110444.9003963676</v>
       </c>
       <c r="AE2" t="n">
-        <v>117203.6830649741</v>
+        <v>151115.5852073683</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.913652539531261e-06</v>
+        <v>7.296003546380948e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.591435185185186</v>
       </c>
       <c r="AH2" t="n">
-        <v>106017.9280496858</v>
+        <v>136693.3258472742</v>
       </c>
     </row>
   </sheetData>
@@ -4090,28 +4090,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.87680194671852</v>
+        <v>111.8670689656377</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.868673157453</v>
+        <v>153.0614589854919</v>
       </c>
       <c r="AC2" t="n">
-        <v>107.5240138245672</v>
+        <v>138.4534881630653</v>
       </c>
       <c r="AD2" t="n">
-        <v>86876.80194671852</v>
+        <v>111867.0689656377</v>
       </c>
       <c r="AE2" t="n">
-        <v>118868.673157453</v>
+        <v>153061.4589854919</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.897765838800106e-06</v>
+        <v>7.201882942262488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.481481481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>107524.0138245672</v>
+        <v>138453.4881630653</v>
       </c>
     </row>
   </sheetData>
@@ -4387,28 +4387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.09760527739287</v>
+        <v>116.9289317569517</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.6437624831797</v>
+        <v>159.9873229701899</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.7479367304372</v>
+        <v>144.7183574095771</v>
       </c>
       <c r="AD2" t="n">
-        <v>91097.60527739287</v>
+        <v>116928.9317569517</v>
       </c>
       <c r="AE2" t="n">
-        <v>124643.7624831797</v>
+        <v>159987.3229701899</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.710284697333686e-06</v>
+        <v>6.814710398669332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.50462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>112747.9367304372</v>
+        <v>144718.3574095771</v>
       </c>
     </row>
     <row r="3">
@@ -4493,28 +4493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>89.49596365533226</v>
+        <v>115.1566979342989</v>
       </c>
       <c r="AB3" t="n">
-        <v>122.452325756436</v>
+        <v>157.5624744685993</v>
       </c>
       <c r="AC3" t="n">
-        <v>110.7656476491925</v>
+        <v>142.5249330456813</v>
       </c>
       <c r="AD3" t="n">
-        <v>89495.96365533226</v>
+        <v>115156.6979342989</v>
       </c>
       <c r="AE3" t="n">
-        <v>122452.325756436</v>
+        <v>157562.4744685993</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.833948397536787e-06</v>
+        <v>6.993623640195699e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.336805555555554</v>
       </c>
       <c r="AH3" t="n">
-        <v>110765.6476491925</v>
+        <v>142524.9330456813</v>
       </c>
     </row>
   </sheetData>
@@ -4790,28 +4790,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.86536267730769</v>
+        <v>117.1632587555314</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.1165332106087</v>
+        <v>160.307939507424</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.0345342515962</v>
+        <v>145.0083747544858</v>
       </c>
       <c r="AD2" t="n">
-        <v>84865.36267730768</v>
+        <v>117163.2587555314</v>
       </c>
       <c r="AE2" t="n">
-        <v>116116.5332106087</v>
+        <v>160307.939507424</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.88092648918802e-06</v>
+        <v>7.329612211048601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.788194444444446</v>
       </c>
       <c r="AH2" t="n">
-        <v>105034.5342515962</v>
+        <v>145008.3747544858</v>
       </c>
     </row>
   </sheetData>
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.32801989227336</v>
+        <v>123.5901956600025</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.3272700413201</v>
+        <v>169.1015581165622</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.2707726900469</v>
+        <v>152.9627427454919</v>
       </c>
       <c r="AD2" t="n">
-        <v>92328.01989227335</v>
+        <v>123590.1956600025</v>
       </c>
       <c r="AE2" t="n">
-        <v>126327.2700413201</v>
+        <v>169101.5581165622</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.717115740803543e-06</v>
+        <v>7.234860931556252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.320601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>114270.7726900469</v>
+        <v>152962.7427454919</v>
       </c>
     </row>
   </sheetData>
@@ -8013,28 +8013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.9020868649673</v>
+        <v>131.489875879312</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.0586867344927</v>
+        <v>179.9102491019108</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.8825594391735</v>
+        <v>162.7398674332953</v>
       </c>
       <c r="AD2" t="n">
-        <v>100902.0868649673</v>
+        <v>131489.875879312</v>
       </c>
       <c r="AE2" t="n">
-        <v>138058.6867344927</v>
+        <v>179910.2491019108</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.458571932392821e-06</v>
+        <v>6.966430697402582e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.00925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>124882.5594391735</v>
+        <v>162739.8674332953</v>
       </c>
     </row>
   </sheetData>
@@ -8310,28 +8310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.349218563568</v>
+        <v>168.808088867942</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.0860396740328</v>
+        <v>230.9706744762914</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.8034422034468</v>
+        <v>208.9271574737184</v>
       </c>
       <c r="AD2" t="n">
-        <v>132349.218563568</v>
+        <v>168808.088867942</v>
       </c>
       <c r="AE2" t="n">
-        <v>181086.0396740328</v>
+        <v>230970.6744762913</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.469680618666583e-06</v>
+        <v>5.654455693705392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.0474537037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>163803.4422034468</v>
+        <v>208927.1574737183</v>
       </c>
     </row>
   </sheetData>
@@ -8607,28 +8607,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>86.33672294310286</v>
+        <v>111.3136507153377</v>
       </c>
       <c r="AB2" t="n">
-        <v>118.1297132381024</v>
+        <v>152.3042477203418</v>
       </c>
       <c r="AC2" t="n">
-        <v>106.8555792027824</v>
+        <v>137.7685440783082</v>
       </c>
       <c r="AD2" t="n">
-        <v>86336.72294310285</v>
+        <v>111313.6507153377</v>
       </c>
       <c r="AE2" t="n">
-        <v>118129.7132381024</v>
+        <v>152304.2477203418</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.903508401585108e-06</v>
+        <v>7.244349188522894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.539351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>106855.5792027824</v>
+        <v>137768.5440783082</v>
       </c>
     </row>
   </sheetData>
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.05647128755106</v>
+        <v>114.5581684636501</v>
       </c>
       <c r="AB2" t="n">
-        <v>121.8509929098032</v>
+        <v>156.7435400416013</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.2217051654661</v>
+        <v>141.7841565710141</v>
       </c>
       <c r="AD2" t="n">
-        <v>89056.47128755106</v>
+        <v>114558.1684636501</v>
       </c>
       <c r="AE2" t="n">
-        <v>121850.9929098032</v>
+        <v>156743.5400416013</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.830279114845223e-06</v>
+        <v>7.01438166741721e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.394675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>110221.7051654661</v>
+        <v>141784.1565710141</v>
       </c>
     </row>
     <row r="3">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>87.58422976225098</v>
+        <v>113.08592693835</v>
       </c>
       <c r="AB3" t="n">
-        <v>119.8366071041766</v>
+        <v>154.7291542359747</v>
       </c>
       <c r="AC3" t="n">
-        <v>108.3995695139196</v>
+        <v>139.9620209194676</v>
       </c>
       <c r="AD3" t="n">
-        <v>87584.22976225098</v>
+        <v>113085.92693835</v>
       </c>
       <c r="AE3" t="n">
-        <v>119836.6071041766</v>
+        <v>154729.1542359747</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.947658564442914e-06</v>
+        <v>7.184836467194542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.244212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>108399.5695139196</v>
+        <v>139962.0209194676</v>
       </c>
     </row>
   </sheetData>
@@ -9307,28 +9307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.0754146484466</v>
+        <v>215.799811094253</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.2317090521014</v>
+        <v>295.2668219547684</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.545033661941</v>
+        <v>267.0869708770798</v>
       </c>
       <c r="AD2" t="n">
-        <v>166075.4146484466</v>
+        <v>215799.811094253</v>
       </c>
       <c r="AE2" t="n">
-        <v>227231.7090521014</v>
+        <v>295266.8219547684</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.741818105890279e-06</v>
+        <v>4.57044742762356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.47916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>205545.033661941</v>
+        <v>267086.9708770798</v>
       </c>
     </row>
   </sheetData>
@@ -9604,28 +9604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.7077183171611</v>
+        <v>116.5354307531595</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.8467901773636</v>
+        <v>159.4489175367625</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.7407105534576</v>
+        <v>144.2313366350591</v>
       </c>
       <c r="AD2" t="n">
-        <v>92707.7183171611</v>
+        <v>116535.4307531595</v>
       </c>
       <c r="AE2" t="n">
-        <v>126846.7901773636</v>
+        <v>159448.9175367625</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.772049650313122e-06</v>
+        <v>7.262613961996943e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.12962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>114740.7105534576</v>
+        <v>144231.3366350591</v>
       </c>
     </row>
   </sheetData>
@@ -9901,28 +9901,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>85.31152671946276</v>
+        <v>117.8910704770154</v>
       </c>
       <c r="AB2" t="n">
-        <v>116.7269945364534</v>
+        <v>161.3037636135451</v>
       </c>
       <c r="AC2" t="n">
-        <v>105.5867340052903</v>
+        <v>145.9091588055669</v>
       </c>
       <c r="AD2" t="n">
-        <v>85311.52671946277</v>
+        <v>117891.0704770154</v>
       </c>
       <c r="AE2" t="n">
-        <v>116726.9945364534</v>
+        <v>161303.7636135451</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.892687165960608e-06</v>
+        <v>7.304344992563615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.695601851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>105586.7340052903</v>
+        <v>145909.1588055669</v>
       </c>
     </row>
   </sheetData>
